--- a/dokument/wykresy_impl.xlsx
+++ b/dokument/wykresy_impl.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRiR projekt\replikacja_srir\dokument\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Technologia</t>
   </si>
@@ -46,6 +51,12 @@
   </si>
   <si>
     <t>Powdem różnicy mogą być m.in. różna znajomość poszegolnych technologi</t>
+  </si>
+  <si>
+    <t>Ilość linii kodu</t>
+  </si>
+  <si>
+    <t>Sockets</t>
   </si>
 </sst>
 </file>
@@ -79,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -139,11 +150,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -162,6 +188,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -242,6 +269,13 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -249,6 +283,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -290,6 +330,13 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -297,6 +344,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -331,8 +384,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171815296"/>
-        <c:axId val="171816832"/>
+        <c:axId val="479103328"/>
+        <c:axId val="479104416"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -371,7 +424,6 @@
                   <c:showLeaderLines val="0"/>
                   <c:extLst>
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="1"/>
                     </c:ext>
                   </c:extLst>
@@ -388,7 +440,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Wielkość wiadomości dla przykładowego łańcucha znakowego</c:v>
+                        <c:v>Wielkość wiadomości dla przykładowego łańcucha znakowego [kB]</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -414,7 +466,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171815296"/>
+        <c:axId val="479103328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +476,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171816832"/>
+        <c:crossAx val="479104416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -432,7 +484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171816832"/>
+        <c:axId val="479104416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171815296"/>
+        <c:crossAx val="479103328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -552,6 +604,13 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -559,6 +618,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -600,6 +665,13 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -607,6 +679,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -641,8 +719,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="173441024"/>
-        <c:axId val="173442560"/>
+        <c:axId val="479105504"/>
+        <c:axId val="479112576"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -681,7 +759,6 @@
                   <c:showLeaderLines val="0"/>
                   <c:extLst>
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="1"/>
                     </c:ext>
                   </c:extLst>
@@ -698,7 +775,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Wielkości wiadomości dla przykładowego ciągu liczb</c:v>
+                        <c:v>Wielkości wiadomości dla przykładowego ciągu liczb [kB]</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -724,7 +801,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173441024"/>
+        <c:axId val="479105504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +811,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173442560"/>
+        <c:crossAx val="479112576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -742,7 +819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173442560"/>
+        <c:axId val="479112576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173441024"/>
+        <c:crossAx val="479105504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -857,6 +934,13 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -864,6 +948,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -894,6 +984,13 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -901,6 +998,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -924,11 +1027,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="173470848"/>
-        <c:axId val="173472384"/>
+        <c:axId val="479107136"/>
+        <c:axId val="479107680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173470848"/>
+        <c:axId val="479107136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,7 +1040,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173472384"/>
+        <c:crossAx val="479107680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -945,7 +1048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173472384"/>
+        <c:axId val="479107680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +1078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173470848"/>
+        <c:crossAx val="479107136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1047,6 +1150,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1054,6 +1164,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1079,7 +1195,7 @@
                   <c:v>2.3400000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1000000000000002E-4</c:v>
+                  <c:v>4.8300000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,16 +1212,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173563264"/>
-        <c:axId val="173577344"/>
+        <c:axId val="638885136"/>
+        <c:axId val="638884592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173563264"/>
+        <c:axId val="638885136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1119,7 +1236,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173577344"/>
+        <c:crossAx val="638884592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1127,7 +1244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173577344"/>
+        <c:axId val="638884592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1274,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173563264"/>
+        <c:crossAx val="638885136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1235,6 +1352,13 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1242,6 +1366,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1272,6 +1402,13 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1279,6 +1416,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1302,11 +1445,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="175580288"/>
-        <c:axId val="175582592"/>
+        <c:axId val="638886224"/>
+        <c:axId val="638886768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="175580288"/>
+        <c:axId val="638886224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,7 +1458,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175582592"/>
+        <c:crossAx val="638886768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1323,7 +1466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175582592"/>
+        <c:axId val="638886768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1496,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175580288"/>
+        <c:crossAx val="638886224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1368,6 +1511,957 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czas uruchamiania implementacji</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38047900262467194"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$78:$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sockets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$78:$B$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3784</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="638897104"/>
+        <c:axId val="638897648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="638897104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638897648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="638897648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638897104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1522,6 +2616,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1568,7 +2692,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1603,7 +2727,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1812,10 +2936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>7.1000000000000002E-4</v>
+        <v>4.8300000000000001E-3</v>
       </c>
       <c r="C3" s="2">
         <v>0.184198</v>
@@ -1909,9 +3033,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="8">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="8">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/dokument/wykresy_impl.xlsx
+++ b/dokument/wykresy_impl.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Technologia</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Sockets</t>
+  </si>
+  <si>
+    <t>ilosc linii kodu</t>
   </si>
 </sst>
 </file>
@@ -243,7 +246,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -285,7 +287,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -346,7 +347,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -384,8 +384,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="479103328"/>
-        <c:axId val="479104416"/>
+        <c:axId val="-779615472"/>
+        <c:axId val="-780933696"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -466,7 +466,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="479103328"/>
+        <c:axId val="-779615472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -476,7 +476,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479104416"/>
+        <c:crossAx val="-780933696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -484,7 +484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="479104416"/>
+        <c:axId val="-780933696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -512,21 +512,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479103328"/>
+        <c:crossAx val="-779615472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -578,7 +576,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -620,7 +617,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -681,7 +677,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -719,8 +714,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="479105504"/>
-        <c:axId val="479112576"/>
+        <c:axId val="-621988736"/>
+        <c:axId val="-621995808"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -801,7 +796,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="479105504"/>
+        <c:axId val="-621988736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +806,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479112576"/>
+        <c:crossAx val="-621995808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -819,7 +814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="479112576"/>
+        <c:axId val="-621995808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,21 +837,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479105504"/>
+        <c:crossAx val="-621988736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -908,7 +901,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -950,7 +942,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1000,7 +991,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1027,11 +1017,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="479107136"/>
-        <c:axId val="479107680"/>
+        <c:axId val="-621999072"/>
+        <c:axId val="-621997440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="479107136"/>
+        <c:axId val="-621999072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +1030,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479107680"/>
+        <c:crossAx val="-621997440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1048,7 +1038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="479107680"/>
+        <c:axId val="-621997440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,21 +1061,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479107136"/>
+        <c:crossAx val="-621999072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1137,7 +1125,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1166,7 +1153,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1212,11 +1198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638885136"/>
-        <c:axId val="638884592"/>
+        <c:axId val="-621987648"/>
+        <c:axId val="-621987104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="638885136"/>
+        <c:axId val="-621987648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +1222,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638884592"/>
+        <c:crossAx val="-621987104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1244,7 +1230,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="638884592"/>
+        <c:axId val="-621987104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,14 +1253,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638885136"/>
+        <c:crossAx val="-621987648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1326,7 +1311,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1368,7 +1352,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1418,7 +1401,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1445,11 +1427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="638886224"/>
-        <c:axId val="638886768"/>
+        <c:axId val="-621992000"/>
+        <c:axId val="-621989280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="638886224"/>
+        <c:axId val="-621992000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1458,7 +1440,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638886768"/>
+        <c:crossAx val="-621989280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1466,7 +1448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="638886768"/>
+        <c:axId val="-621989280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,14 +1471,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638886224"/>
+        <c:crossAx val="-621992000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1710,11 +1691,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="638897104"/>
-        <c:axId val="638897648"/>
+        <c:axId val="-621988192"/>
+        <c:axId val="-621986016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="638897104"/>
+        <c:axId val="-621988192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,7 +1738,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638897648"/>
+        <c:crossAx val="-621986016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1765,7 +1746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="638897648"/>
+        <c:axId val="-621986016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,7 +1853,355 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638897104"/>
+        <c:crossAx val="-621988192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Ilość</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> linii kodu</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$83:$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>REST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sockets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$83:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-616909920"/>
+        <c:axId val="-616905024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-616909920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-616905024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-616905024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-616909920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1961,7 +2290,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2641,6 +3513,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2936,10 +3838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3060,6 +3962,27 @@
         <v>262</v>
       </c>
     </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
